--- a/webapps/ROOT/image/60.xlsx
+++ b/webapps/ROOT/image/60.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,108 @@
       <t>yao'qing</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>fengxw</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>投中网c</t>
+  </si>
+  <si>
+    <t>15110001802</t>
+  </si>
+  <si>
+    <t>123@163.com</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>已审核</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+您的身份:媒体人  工程师  
+参会权益:分会场    LP/GP闭门研讨——投中十问   分论坛一：LP的专业化进阶 （分会场一）  分论坛二：家族财富的投资之道（本环节仅对权益客户开放）  
+免费午餐:day1 午餐  day2 午餐  </t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>丁宇</t>
+  </si>
+  <si>
+    <t>技术总监</t>
+  </si>
+  <si>
+    <t>投中网</t>
+  </si>
+  <si>
+    <t>18810600807</t>
+  </si>
+  <si>
+    <t>124899sdhf@136.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+您的身份:投资人  
+参会权益:8.19-18:00:00 主会场    政府引导基金闭门培训  分论坛二：家族财富的投资之道（本环节仅对权益客户开放）  精英论道（分会场二）  
+免费午餐:day1 午餐  day2 午餐  </t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>fangyang</t>
+  </si>
+  <si>
+    <t>职位</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>15011540723</t>
+  </si>
+  <si>
+    <t>asdjfhksdf@skdjhf.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+您的身份:工程师  
+参会权益:家族会客室  分会场    LP/GP闭门研讨——投中十问   
+免费午餐:day1 午餐  不显示哦  </t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>明哥</t>
+  </si>
+  <si>
+    <t>你听</t>
+  </si>
+  <si>
+    <t>提地信</t>
+  </si>
+  <si>
+    <t>18616199003</t>
+  </si>
+  <si>
+    <t>hdbdj@163.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+您的身份:投资人  
+参会权益:8.19-18:00:00 主会场    政府引导基金闭门培训  政府引导基金募资对接专场（对接专场会议室）   
+免费午餐:day2 午餐  </t>
   </si>
 </sst>
 </file>
@@ -533,6 +635,146 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
